--- a/medicine/Enfance/André_Dahan/André_Dahan.xlsx
+++ b/medicine/Enfance/André_Dahan/André_Dahan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Dahan</t>
+          <t>André_Dahan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Dahan, né le 2 mai 1935 à Saint-Eugène (Algérie), est un artiste peintre, illustrateur et auteur d'ouvrages jeunesse français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Dahan</t>
+          <t>André_Dahan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Dahan suit des études à l'École nationale supérieure des arts appliqués et des métiers d'art[1] de Paris. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Dahan suit des études à l'École nationale supérieure des arts appliqués et des métiers d'art de Paris. 
 Il est artiste peintre et illustrateur depuis 1962 : illustrateur de presse, puis d'ouvrages jeunesse. Il est également l'auteur de la majorité des albums qu'il illustre.
-Selon le site Ricochet : « Son album, Mon amie la lune, le rendit célèbre dans le monde entier. »[1] Lors de sa publication en 1987, La Revue des livres pour enfants écrit : « Franc-tireur du livre pour enfants, André Dahan appartient à ces peintres-illustrateurs qui travaillent en marge de l'édition. Mais parfois la rencontre se fait : Hatier, Bayard-Presse, Vif-Argent, et maintenant Gallimard. André Dahan s'impose comme étant dans la lignée d'André François. Mais une possible ressemblance ne doit pas tromper : André François est avant tout un graphiste, André Dahan un peintre. Mon amie la lune a été entièrement traité à l'huile. Les tableaux ont été exposés à Beaubourg (« Iles »), à Bologne, au Japon... L'album sort en co-édition anglo-américaine, suisse-allemande, suédoise »[2].
+Selon le site Ricochet : « Son album, Mon amie la lune, le rendit célèbre dans le monde entier. » Lors de sa publication en 1987, La Revue des livres pour enfants écrit : « Franc-tireur du livre pour enfants, André Dahan appartient à ces peintres-illustrateurs qui travaillent en marge de l'édition. Mais parfois la rencontre se fait : Hatier, Bayard-Presse, Vif-Argent, et maintenant Gallimard. André Dahan s'impose comme étant dans la lignée d'André François. Mais une possible ressemblance ne doit pas tromper : André François est avant tout un graphiste, André Dahan un peintre. Mon amie la lune a été entièrement traité à l'huile. Les tableaux ont été exposés à Beaubourg (« Iles »), à Bologne, au Japon... L'album sort en co-édition anglo-américaine, suisse-allemande, suédoise ».
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Dahan</t>
+          <t>André_Dahan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,22 +560,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Zoo pour rire, Hatier, 1974
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Zoo pour rire, Hatier, 1974
 Quand le berger dort, Hatier, 1976
-Mon amie la lune[2], Gallimard, 1987
+Mon amie la lune, Gallimard, 1987
 Le chat et le poisson, Duculot, 1991
 Des nouvelles du zoo , Duculot, 1992
 Série Les Quatre saisons, Casterman, 1994
 Série Hélico, Gallimard, 1989-1995
 Bonne nuit, petite lune , Gallimard jeunesse, 1996
 Le bateau du grand-père, Gallimard jeunesse, 2002
-Au jardin du Luxembourg , Gallimard jeunesse, 1998
-Illustrateur
-Ali Baba et les quarante voleurs, traduit de l'arabe par Antoine Galland, illustrations de André Dahan, le Livre de poche, 1979
-François Dautré, Bleu de bleu , ill. par André Dahan, Vif argent, 1982
-Michel Grimaud, L'Enfant de la mer, ill. par André Dahan, Centurion, 1986
-Margaret Davidson, Louis Braille, l'enfant de la nuit, Gallimard jeunesse, 1983</t>
+Au jardin du Luxembourg , Gallimard jeunesse, 1998</t>
         </is>
       </c>
     </row>
@@ -571,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Dahan</t>
+          <t>André_Dahan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,15 +600,56 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ali Baba et les quarante voleurs, traduit de l'arabe par Antoine Galland, illustrations de André Dahan, le Livre de poche, 1979
+François Dautré, Bleu de bleu , ill. par André Dahan, Vif argent, 1982
+Michel Grimaud, L'Enfant de la mer, ill. par André Dahan, Centurion, 1986
+Margaret Davidson, Louis Braille, l'enfant de la nuit, Gallimard jeunesse, 1983</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Dahan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Dahan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sélection Deutscher Jugendliteraturpreis 1988[3] pour Mon amie la Lune
- Sélection Deutscher Jugendliteraturpreis 1989[4] pour Hélico et l’oiseau
-Prix Spécial du Prix L'Attire-Lire 1990 pour Hélico et l'oiseau, durant la 2e biennale internationale des illustrateurs de livres d'enfants de Lannion[5]
- Pomme d'Or de Bratislava 1991[6] , lors de la Biennale d'illustration de Bratislava, pour Hélico et l'iceberg</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sélection Deutscher Jugendliteraturpreis 1988 pour Mon amie la Lune
+ Sélection Deutscher Jugendliteraturpreis 1989 pour Hélico et l’oiseau
+Prix Spécial du Prix L'Attire-Lire 1990 pour Hélico et l'oiseau, durant la 2e biennale internationale des illustrateurs de livres d'enfants de Lannion
+ Pomme d'Or de Bratislava 1991 , lors de la Biennale d'illustration de Bratislava, pour Hélico et l'iceberg</t>
         </is>
       </c>
     </row>
